--- a/HolidayCalendarService/Template/Copilot Portuguese.xlsx
+++ b/HolidayCalendarService/Template/Copilot Portuguese.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28230"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicoschreder\Development\holidaycalendarapp\HolidayCalendarService\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F721C859-B7A0-48B9-AC40-711839090B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E798E747-3518-4EB6-9DD5-E8EA1356E633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{36ACBFC6-48A0-4CD7-B10E-9675CF43A6CD}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11235" xr2:uid="{36ACBFC6-48A0-4CD7-B10E-9675CF43A6CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>Image</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20English/2.png</t>
-  </si>
-  <si>
     <t>https://copilot.cloud.microsoft/pt-pt/prompts</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>Faça perguntas e obtenha respostas</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20English/4.png</t>
-  </si>
-  <si>
     <t>https://support.microsoft.com/pt-pt/topic/fa%C3%A7a-perguntas-e-receba-respostas-com-o-copilot-para-o-microsoft-365-fd8d88af-9492-48cd-8385-7e8615b42d80</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>Copilot em movimento</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20English/5.png</t>
-  </si>
-  <si>
     <t>https://support.microsoft.com/pt-pt/topic/melhore-a-produtividade-da-sua-empresa-com-o-microsoft-copilot-para-dispositivos-m%C3%B3veis-24bd7d62-f3c7-47d8-8cce-ee78edc018d4</t>
   </si>
   <si>
@@ -126,9 +117,6 @@
     <t>Crie prompts eficazes</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20English/6.png</t>
-  </si>
-  <si>
     <t>https://support.microsoft.com/pt-pt/topic/saiba-mais-sobre-os-pedidos-do-copilot-f6c3b467-f07c-4db1-ae54-ffac96184dd5</t>
   </si>
   <si>
@@ -138,9 +126,6 @@
     <t>Crie automações com o Copilot</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20English/7.png</t>
-  </si>
-  <si>
     <t>https://make.powerautomate.com</t>
   </si>
   <si>
@@ -150,9 +135,6 @@
     <t>Atualize-se rapidamente</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20English/8.png</t>
-  </si>
-  <si>
     <t>https://support.microsoft.com/pt-pt/topic/atualize-se-rapidamente-com-o-chat-empresarial-cffb11c2-bb06-4d5b-bd4b-9497895daff3</t>
   </si>
   <si>
@@ -174,9 +156,6 @@
     <t>Crie conteúdo usando o Copilot</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20English/10.png</t>
-  </si>
-  <si>
     <t>https://support.microsoft.com/pt-pt/topic/criar-conte%C3%BAdo-atrav%C3%A9s-do-copilot-para-o-microsoft-365-81398592-c1bd-4dd5-87e5-0af63aada049</t>
   </si>
   <si>
@@ -186,9 +165,6 @@
     <t>Use o Copilot em reuniões</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20English/11.png</t>
-  </si>
-  <si>
     <t>https://support.microsoft.com/pt-pt/office/introdu%C3%A7%C3%A3o-ao-copilot-nas-reuni%C3%B5es-do-microsoft-teams-0bf9dd3c-96f7-44e2-8bb8-790bedf066b1</t>
   </si>
   <si>
@@ -198,9 +174,6 @@
     <t>Expanda o seu Copilot com ações</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20English/12.png</t>
-  </si>
-  <si>
     <t>https://learn.microsoft.com/pt-pt/training/paths/extend-microsoft-copilot-microsoft-365-copilot-studio/</t>
   </si>
   <si>
@@ -210,9 +183,6 @@
     <t>Compare os seus ficheiros no OneDrive</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20English/13.png</t>
-  </si>
-  <si>
     <t>https://support.microsoft.com/pt-pt/office/comparar-ficheiros-com-o-copilot-no-onedrive-46dace59-76c3-44ff-a116-a7aee5fe1f3c</t>
   </si>
   <si>
@@ -234,9 +204,6 @@
     <t>Gere colunas baseadas em fórmulas​</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20English/15.png</t>
-  </si>
-  <si>
     <t>https://support.microsoft.com/pt-pt/office/gere-colunas-de-f%C3%B3rmulas-com-o-copilot-no-excel-d866d926-9791-4e5f-be2a-c6dd9e587a47</t>
   </si>
   <si>
@@ -258,9 +225,6 @@
     <t>Redigir um documento</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20English/17.png</t>
-  </si>
-  <si>
     <t>https://support.microsoft.com/pt-pt/office/damos-lhe-as-boas-vindas-ao-copilot-no-word-2135e85f-a467-463b-b2f0-c51a46d625d1</t>
   </si>
   <si>
@@ -282,9 +246,6 @@
     <t>Faça perguntas sobre vídeos</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20English/19.png</t>
-  </si>
-  <si>
     <t>https://support.microsoft.com/pt-pt/office/bem-vindo-ao-microsoft-copilot-em-stream-0b531ea9-2d9d-4830-97e4-2c1b2b8ca31d?ocid=CopilotLab_SMC_Stream</t>
   </si>
   <si>
@@ -294,9 +255,6 @@
     <t>Identifique insights nos seus dados</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20English/20.png</t>
-  </si>
-  <si>
     <t>https://support.microsoft.com/pt-pt/office/identificar-informa%C3%A7%C3%B5es-com-o-copilot-no-excel-52d97339-86c0-431c-b46c-e7b07b2898dd</t>
   </si>
   <si>
@@ -318,9 +276,6 @@
     <t>Crie um convite a partir de um email</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20English/22.png</t>
-  </si>
-  <si>
     <t>https://support.microsoft.com/pt-pt/office/quickly-create-a-meeting-invitation-from-an-email-discussion-in-outlook-31a44dfa-62bb-4751-82c4-14327a26759f</t>
   </si>
   <si>
@@ -330,9 +285,6 @@
     <t>Melhore o seu conteúdo</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20English/23.png</t>
-  </si>
-  <si>
     <t>https://support.microsoft.com/pt-pt/office/eleve-o-seu-conte%C3%BAdo-com-o-copilot-no-word-923d9763-f896-4da7-8a3f-5b12c3bfc475</t>
   </si>
   <si>
@@ -342,9 +294,6 @@
     <t>Torne-se um Prompt Pro</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20English/24.png</t>
-  </si>
-  <si>
     <t>https://www.microsoft.com/en-gb/business/copilot-tips-tricks/</t>
   </si>
   <si>
@@ -355,6 +304,57 @@
   </si>
   <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20Portuguese/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20Portuguese/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20Portuguese/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20Portuguese/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20Portuguese/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20Portuguese/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20Portuguese/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20Portuguese/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20Portuguese/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20Portuguese/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20Portuguese/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20Portuguese/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20Portuguese/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20Portuguese/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20Portuguese/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20Portuguese/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/holidaycalendarapp/refs/heads/main/HolidayCalendarService/Copilot%20Portuguese/24.png</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -447,7 +447,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,21 +795,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84369A7A-C71A-4FC7-A505-0F3C8D7D9355}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="144.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="171.453125" customWidth="1"/>
-    <col min="6" max="6" width="62.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="144.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="171.42578125" customWidth="1"/>
+    <col min="6" max="6" width="62.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -830,7 +829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -843,14 +842,14 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -861,18 +860,18 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>45629</v>
@@ -881,18 +880,18 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>45630</v>
@@ -901,18 +900,18 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="7" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="B6" s="1">
         <v>45631</v>
@@ -921,18 +920,18 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="B7" s="1">
         <v>45632</v>
@@ -941,18 +940,18 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>92</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1">
         <v>45633</v>
@@ -961,18 +960,18 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>93</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1">
         <v>45634</v>
@@ -981,18 +980,18 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>38</v>
+        <v>94</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1">
         <v>45635</v>
@@ -1001,18 +1000,18 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1">
         <v>45636</v>
@@ -1021,18 +1020,18 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>95</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1">
         <v>45637</v>
@@ -1041,18 +1040,18 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>50</v>
+        <v>96</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1">
         <v>45638</v>
@@ -1061,18 +1060,18 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>97</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1">
         <v>45639</v>
@@ -1081,18 +1080,18 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>98</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1">
         <v>45640</v>
@@ -1101,18 +1100,18 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1">
         <v>45641</v>
@@ -1121,18 +1120,18 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>66</v>
+        <v>99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1">
         <v>45642</v>
@@ -1141,18 +1140,18 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B18" s="1">
         <v>45643</v>
@@ -1161,18 +1160,18 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>74</v>
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B19" s="1">
         <v>45644</v>
@@ -1181,18 +1180,18 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>78</v>
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B20" s="1">
         <v>45645</v>
@@ -1201,18 +1200,18 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>82</v>
+        <v>101</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B21" s="1">
         <v>45646</v>
@@ -1221,18 +1220,18 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>86</v>
+        <v>102</v>
+      </c>
+      <c r="E21" t="s">
+        <v>72</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B22" s="1">
         <v>45647</v>
@@ -1241,18 +1240,18 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>90</v>
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B23" s="1">
         <v>45648</v>
@@ -1261,18 +1260,18 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
+      </c>
+      <c r="E23" t="s">
+        <v>79</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B24" s="1">
         <v>45649</v>
@@ -1281,18 +1280,18 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
+      </c>
+      <c r="E24" t="s">
+        <v>82</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B25" s="1">
         <v>45650</v>
@@ -1301,13 +1300,13 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1339,32 +1338,32 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1378,15 +1377,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -1400,7 +1390,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001262F956B7C6624B8AD32B2C07A4016A" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74ff8fbec5957ef2b318bb7f92bedf33">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="b9fca909-5068-4889-a98d-66367aed6236" xmlns:ns3="21f48a0c-0825-4f9a-8098-6cb539880210" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a08b0ffcd451d310925d3135f95e51b0" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1695,15 +1685,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB5A595-6ECE-49F1-AADE-0218D6C158AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0A4B2C-23E9-4600-B233-DC08F6478FEB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1715,7 +1706,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8694C0A-ADEC-4C43-BEC1-E9BC82895567}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1736,6 +1727,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB5A595-6ECE-49F1-AADE-0218D6C158AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{87867195-f2b8-4ac2-b0b6-6bb73cb33afc}" enabled="1" method="Privileged" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
